--- a/과목 및 담당교사.xlsx
+++ b/과목 및 담당교사.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24029c735d546166/Documents/내 파일/학교/고등학교/고2/0 기타 세특활동/프로젝트 봉사활동/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24029c735d546166/Documents/내 파일/학교/고등학교/고2/학급/새 폴더/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="618" documentId="8_{63513DFB-DA80-4B49-BDD2-051C60A0FEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0773257-1656-4C21-AC31-D9D75C2F515A}"/>
+  <xr:revisionPtr revIDLastSave="620" documentId="8_{63513DFB-DA80-4B49-BDD2-051C60A0FEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2D2DD2E-BD95-4D98-AB56-90F16E2D3AAC}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3472" windowWidth="16200" windowHeight="9308" xr2:uid="{24E2F10C-7DCB-457E-BD95-7AD75BF62B57}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307" xr2:uid="{24E2F10C-7DCB-457E-BD95-7AD75BF62B57}"/>
   </bookViews>
   <sheets>
-    <sheet name="데이터 프레임" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'데이터 프레임'!$A$1:$C$66</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$C$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1170,10 +1170,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1532,13 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3772DC22-9769-42BF-B7F0-DAB7920A0EC1}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>

--- a/과목 및 담당교사.xlsx
+++ b/과목 및 담당교사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24029c735d546166/Documents/내 파일/학교/고등학교/고2/학급/새 폴더/test2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="620" documentId="8_{63513DFB-DA80-4B49-BDD2-051C60A0FEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2D2DD2E-BD95-4D98-AB56-90F16E2D3AAC}"/>
+  <xr:revisionPtr revIDLastSave="621" documentId="8_{63513DFB-DA80-4B49-BDD2-051C60A0FEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57AC7FA5-7563-46DA-BEF9-4C805B68C3A0}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307" xr2:uid="{24E2F10C-7DCB-457E-BD95-7AD75BF62B57}"/>
   </bookViews>
@@ -1172,6 +1172,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{7154B88D-AABC-43A3-A2A7-A15FFD6C9A08}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11" unboundColumnsRight="6">
@@ -1195,7 +1199,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C87CF02-84FA-4CAA-B32B-1290377B3F9A}" name="교직원_소개__2" displayName="교직원_소개__2" ref="A1:I66" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="A1:I66" xr:uid="{6C87CF02-84FA-4CAA-B32B-1290377B3F9A}"/>
+  <autoFilter ref="A1:I66" xr:uid="{6C87CF02-84FA-4CAA-B32B-1290377B3F9A}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="영어"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{786FE509-4147-408E-921A-BA02FCEBE4C6}" uniqueName="1" name="부서" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{1305FEB9-D0AF-40FA-AB73-7E9EFD356B5F}" uniqueName="3" name="성명" queryTableFieldId="3" dataDxfId="7"/>
@@ -1530,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3772DC22-9769-42BF-B7F0-DAB7920A0EC1}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1572,7 +1582,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1602,7 @@
       <c r="I2" s="3"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1622,7 @@
       <c r="I3" s="6"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1636,7 +1646,7 @@
       <c r="I4" s="6"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1660,7 +1670,7 @@
       <c r="I5" s="6"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1682,7 +1692,7 @@
       <c r="I6" s="6"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1714,7 @@
       <c r="I7" s="6"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1722,7 +1732,7 @@
       <c r="I8" s="6"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1744,7 +1754,7 @@
       <c r="I9" s="6"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1764,7 +1774,7 @@
       <c r="I10" s="6"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1820,7 @@
       <c r="I12" s="6"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1834,7 +1844,7 @@
       <c r="I13" s="6"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -1858,7 +1868,7 @@
       <c r="I14" s="6"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1890,7 @@
       <c r="I15" s="6"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -1900,7 +1910,7 @@
       <c r="I16" s="6"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1922,7 +1932,7 @@
       <c r="I17" s="6"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1954,7 @@
       <c r="I18" s="6"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1962,7 +1972,7 @@
       <c r="I19" s="6"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -1984,7 +1994,7 @@
       <c r="I20" s="6"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2006,7 +2016,7 @@
       <c r="I21" s="6"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -2052,7 +2062,7 @@
       <c r="I23" s="6"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
@@ -2074,7 +2084,7 @@
       <c r="I24" s="6"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
         <v>114</v>
       </c>
@@ -2116,7 +2126,7 @@
       <c r="I26" s="6"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A27" s="5" t="s">
         <v>114</v>
       </c>
@@ -2138,7 +2148,7 @@
       <c r="I27" s="6"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
@@ -2160,7 +2170,7 @@
       <c r="I28" s="6"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2180,7 +2190,7 @@
       <c r="I29" s="6"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
@@ -2200,7 +2210,7 @@
       <c r="I30" s="6"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A31" s="5" t="s">
         <v>53</v>
       </c>
@@ -2238,7 +2248,7 @@
       <c r="I32" s="6"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A33" s="5" t="s">
         <v>171</v>
       </c>
@@ -2258,7 +2268,7 @@
       <c r="I33" s="6"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A34" s="5" t="s">
         <v>56</v>
       </c>
@@ -2300,7 +2310,7 @@
       <c r="I35" s="6"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A36" s="5" t="s">
         <v>56</v>
       </c>
@@ -2320,7 +2330,7 @@
       <c r="I36" s="6"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
@@ -2342,7 +2352,7 @@
       <c r="I37" s="6"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2362,7 +2372,7 @@
       <c r="I38" s="6"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
@@ -2386,7 +2396,7 @@
       <c r="I39" s="6"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A40" s="5" t="s">
         <v>56</v>
       </c>
@@ -2410,7 +2420,7 @@
       <c r="I40" s="6"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A41" s="5" t="s">
         <v>56</v>
       </c>
@@ -2430,7 +2440,7 @@
       <c r="I41" s="6"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
@@ -2474,7 +2484,7 @@
       <c r="I43" s="6"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A44" s="5" t="s">
         <v>68</v>
       </c>
@@ -2494,7 +2504,7 @@
       <c r="I44" s="6"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A45" s="5" t="s">
         <v>68</v>
       </c>
@@ -2538,7 +2548,7 @@
       <c r="I46" s="6"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A47" s="5" t="s">
         <v>68</v>
       </c>
@@ -2558,7 +2568,7 @@
       <c r="I47" s="6"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A48" s="5" t="s">
         <v>68</v>
       </c>
@@ -2578,7 +2588,7 @@
       <c r="I48" s="6"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A49" s="5" t="s">
         <v>68</v>
       </c>
@@ -2600,7 +2610,7 @@
       <c r="I49" s="6"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A50" s="5" t="s">
         <v>68</v>
       </c>
@@ -2624,7 +2634,7 @@
       <c r="I50" s="6"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A51" s="5" t="s">
         <v>68</v>
       </c>
@@ -2646,7 +2656,7 @@
       <c r="I51" s="6"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A52" s="5" t="s">
         <v>68</v>
       </c>
@@ -2666,7 +2676,7 @@
       <c r="I52" s="6"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A53" s="5" t="s">
         <v>68</v>
       </c>
@@ -2688,7 +2698,7 @@
       <c r="I53" s="6"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A54" s="5" t="s">
         <v>82</v>
       </c>
@@ -2710,7 +2720,7 @@
       <c r="I54" s="6"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A55" s="5" t="s">
         <v>82</v>
       </c>
@@ -2754,7 +2764,7 @@
       <c r="I56" s="6"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A57" s="5" t="s">
         <v>82</v>
       </c>
@@ -2776,7 +2786,7 @@
       <c r="I57" s="6"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A58" s="5" t="s">
         <v>82</v>
       </c>
@@ -2800,7 +2810,7 @@
       <c r="I58" s="6"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A59" s="5" t="s">
         <v>82</v>
       </c>
@@ -2822,7 +2832,7 @@
       <c r="I59" s="6"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A60" s="5" t="s">
         <v>82</v>
       </c>
@@ -2846,7 +2856,7 @@
       <c r="I60" s="6"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A61" s="5" t="s">
         <v>82</v>
       </c>
@@ -2868,7 +2878,7 @@
       <c r="I61" s="6"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A62" s="5" t="s">
         <v>82</v>
       </c>
@@ -2892,7 +2902,7 @@
       <c r="I62" s="6"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A63" s="5" t="s">
         <v>82</v>
       </c>
@@ -2911,7 +2921,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.6">
       <c r="A64" s="5" t="s">
         <v>82</v>
       </c>
@@ -2932,7 +2942,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.6">
       <c r="A65" s="5" t="s">
         <v>94</v>
       </c>
@@ -2947,7 +2957,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.6">
       <c r="A66" s="8" t="s">
         <v>113</v>
       </c>
